--- a/BangKeHoach-TLCN.xlsx
+++ b/BangKeHoach-TLCN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RoseFashionSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBD75A-84E0-4198-BEAB-494AE720AF0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D8711-425D-4815-B625-98DB0AE28D14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -1180,10 +1180,10 @@
   <dimension ref="A1:Y1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1717,8 +1717,12 @@
       <c r="H13" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -2310,7 +2314,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="27.6">
       <c r="A29" s="23">
         <v>27</v>
       </c>
@@ -2679,7 +2683,7 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+    <row r="40" spans="1:21" ht="27.6">
       <c r="A40" s="23">
         <v>38</v>
       </c>
